--- a/block-stride/block-stride.xlsx
+++ b/block-stride/block-stride.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnakao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnakao/Desktop/PEACH2-Benchmarks/block-stride/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="5460" windowWidth="28160" windowHeight="17440"/>
+    <workbookView xWindow="23040" yWindow="8260" windowWidth="28160" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="CPU1" sheetId="1" r:id="rId1"/>
-    <sheet name="CPU0" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="CPU1" sheetId="1" r:id="rId2"/>
+    <sheet name="CPU0" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -49,7 +50,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MV2_GPUDIRECT_LIMIT=262144</t>
+    <t>MV2_GPUDIRECT_LIMIT=524288</t>
+  </si>
+  <si>
+    <t>TCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU=0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,6 +395,663 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.16348381452318461"/>
+          <c:y val="0.20099555263925342"/>
+          <c:w val="0.79719641294838151"/>
+          <c:h val="0.69160505978419362"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TCA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.0493739999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1650070000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3795829999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8647649999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7852269999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.509988999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.560763999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.79496599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1028.5043720000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E10-E247-848A-60B5D31C5002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MPI-CPU1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33.985376000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.249854999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.919811000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.830570000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.164853999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.494338999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.364413999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226.445198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>564.62526300000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E10-E247-848A-60B5D31C5002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MPI-CPU0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35.294294000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.494399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.500526000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.444830000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.66431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.934928999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.72474099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245.49961099999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>574.909449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E10-E247-848A-60B5D31C5002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1142759280"/>
+        <c:axId val="1260484208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1142759280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1260484208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1260484208"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1142759280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26901356080489935"/>
+          <c:y val="0.29117964421114029"/>
+          <c:w val="0.18654199475065616"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.12246981627296591"/>
           <c:y val="0.20099555263925342"/>
           <c:w val="0.84697462817147862"/>
@@ -465,31 +1134,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50.270556999999997</c:v>
+                  <c:v>33.985376000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.265862999999996</c:v>
+                  <c:v>33.249854999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.720036999999998</c:v>
+                  <c:v>33.919811000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.900208999999997</c:v>
+                  <c:v>34.830570000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.060614000000001</c:v>
+                  <c:v>38.164853999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.414935999999997</c:v>
+                  <c:v>48.494338999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.580318000000005</c:v>
+                  <c:v>84.364413999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>681.93554900000004</c:v>
+                  <c:v>226.445198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1103.225946</c:v>
+                  <c:v>564.62526300000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,31 +1243,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50.399303000000003</c:v>
+                  <c:v>33.810138999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.424412000000004</c:v>
+                  <c:v>33.839941000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.594867999999998</c:v>
+                  <c:v>34.130811999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.934780000000003</c:v>
+                  <c:v>35.090446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.380094999999997</c:v>
+                  <c:v>38.465260999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.519613000000007</c:v>
+                  <c:v>61.450004999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.473995</c:v>
+                  <c:v>96.954106999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>681.325197</c:v>
+                  <c:v>240.734816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1103.470325</c:v>
+                  <c:v>565.98901699999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,7 +1493,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -957,31 +1626,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50.834417000000002</c:v>
+                  <c:v>35.294294000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.305368000000001</c:v>
+                  <c:v>34.494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.239789999999999</c:v>
+                  <c:v>35.500526000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.234327</c:v>
+                  <c:v>37.444830000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.235821000000001</c:v>
+                  <c:v>45.66431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.905428000000001</c:v>
+                  <c:v>81.934928999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138.164759</c:v>
+                  <c:v>129.72474099999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>685.96482300000002</c:v>
+                  <c:v>245.49961099999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1111.0198499999999</c:v>
+                  <c:v>574.909449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,31 +1735,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50.704478999999999</c:v>
+                  <c:v>34.450293000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.984695000000002</c:v>
+                  <c:v>34.500360000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.260055999999999</c:v>
+                  <c:v>34.910440000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.121077999999997</c:v>
+                  <c:v>36.885738000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.104691000000003</c:v>
+                  <c:v>44.940710000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.88995700000001</c:v>
+                  <c:v>162.63008099999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465.699434</c:v>
+                  <c:v>495.95475199999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>685.47010399999999</c:v>
+                  <c:v>244.96913000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1112.259626</c:v>
+                  <c:v>572.35956199999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,6 +2065,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2402,7 +3111,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E0E7CA-85BF-8F48-A3CD-B2697DF6F0DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2443,7 +3696,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2781,17 +4034,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -2838,37 +4091,37 @@
       </c>
       <c r="B3" s="14">
         <f>MIN(C3:L3)</f>
-        <v>50.270556999999997</v>
+        <v>3.0493739999999998</v>
       </c>
       <c r="C3" s="6">
-        <v>50.525664999999996</v>
+        <v>3.0601020000000001</v>
       </c>
       <c r="D3" s="6">
-        <v>50.270556999999997</v>
+        <v>3.0553340000000002</v>
       </c>
       <c r="E3" s="6">
-        <v>50.474404999999997</v>
+        <v>3.0851359999999999</v>
       </c>
       <c r="F3" s="6">
-        <v>50.629376999999998</v>
+        <v>3.1042100000000001</v>
       </c>
       <c r="G3" s="6">
-        <v>50.339699000000003</v>
+        <v>3.0493739999999998</v>
       </c>
       <c r="H3" s="6">
-        <v>50.594807000000003</v>
+        <v>3.0553340000000002</v>
       </c>
       <c r="I3" s="6">
-        <v>50.405264000000003</v>
+        <v>3.074408</v>
       </c>
       <c r="J3" s="6">
-        <v>50.613880000000002</v>
+        <v>3.0899049999999999</v>
       </c>
       <c r="K3" s="6">
-        <v>50.520896999999998</v>
+        <v>3.0839439999999998</v>
       </c>
       <c r="L3" s="7">
-        <v>50.735474000000004</v>
+        <v>3.0708310000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,37 +4130,37 @@
       </c>
       <c r="B4" s="15">
         <f t="shared" ref="B4:B11" si="0">MIN(C4:L4)</f>
-        <v>72.265862999999996</v>
+        <v>3.1650070000000001</v>
       </c>
       <c r="C4" s="9">
-        <v>72.655677999999995</v>
+        <v>3.2246109999999999</v>
       </c>
       <c r="D4" s="9">
-        <v>72.265862999999996</v>
+        <v>3.2150750000000001</v>
       </c>
       <c r="E4" s="9">
-        <v>72.480440000000002</v>
+        <v>3.2496450000000001</v>
       </c>
       <c r="F4" s="9">
-        <v>72.774887000000007</v>
+        <v>3.2150750000000001</v>
       </c>
       <c r="G4" s="9">
-        <v>72.529315999999994</v>
+        <v>3.230572</v>
       </c>
       <c r="H4" s="9">
-        <v>72.464943000000005</v>
+        <v>3.1852719999999999</v>
       </c>
       <c r="I4" s="9">
-        <v>72.709322</v>
+        <v>3.1650070000000001</v>
       </c>
       <c r="J4" s="9">
-        <v>72.914361999999997</v>
+        <v>3.2603740000000001</v>
       </c>
       <c r="K4" s="9">
-        <v>72.544813000000005</v>
+        <v>3.2007690000000002</v>
       </c>
       <c r="L4" s="10">
-        <v>72.705746000000005</v>
+        <v>3.219843</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2916,37 +4169,37 @@
       </c>
       <c r="B5" s="15">
         <f t="shared" si="0"/>
-        <v>36.720036999999998</v>
+        <v>3.3795829999999998</v>
       </c>
       <c r="C5" s="9">
-        <v>37.274360999999999</v>
+        <v>3.4809109999999999</v>
       </c>
       <c r="D5" s="9">
-        <v>37.194490000000002</v>
+        <v>3.3903120000000002</v>
       </c>
       <c r="E5" s="9">
-        <v>36.829709999999999</v>
+        <v>3.3950809999999998</v>
       </c>
       <c r="F5" s="9">
-        <v>37.000179000000003</v>
+        <v>3.3795829999999998</v>
       </c>
       <c r="G5" s="9">
-        <v>36.720036999999998</v>
+        <v>3.454685</v>
       </c>
       <c r="H5" s="9">
-        <v>36.764144999999999</v>
+        <v>3.3795829999999998</v>
       </c>
       <c r="I5" s="9">
-        <v>37.150382999999998</v>
+        <v>3.3843519999999998</v>
       </c>
       <c r="J5" s="9">
-        <v>37.544966000000002</v>
+        <v>3.415346</v>
       </c>
       <c r="K5" s="9">
-        <v>37.289858000000002</v>
+        <v>3.420115</v>
       </c>
       <c r="L5" s="10">
-        <v>36.859512000000002</v>
+        <v>3.4248829999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2955,37 +4208,37 @@
       </c>
       <c r="B6" s="15">
         <f t="shared" si="0"/>
-        <v>37.900208999999997</v>
+        <v>3.8647649999999998</v>
       </c>
       <c r="C6" s="9">
-        <v>38.369894000000002</v>
+        <v>3.8647649999999998</v>
       </c>
       <c r="D6" s="9">
-        <v>38.374662000000001</v>
+        <v>3.989935</v>
       </c>
       <c r="E6" s="9">
-        <v>38.540362999999999</v>
+        <v>3.9947029999999999</v>
       </c>
       <c r="F6" s="9">
-        <v>38.319825999999999</v>
+        <v>4.0006640000000004</v>
       </c>
       <c r="G6" s="9">
-        <v>38.235188000000001</v>
+        <v>3.9947029999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>37.900208999999997</v>
+        <v>4.1854380000000004</v>
       </c>
       <c r="I6" s="9">
-        <v>38.634538999999997</v>
+        <v>4.1651730000000002</v>
       </c>
       <c r="J6" s="9">
-        <v>38.119554999999998</v>
+        <v>3.9553639999999999</v>
       </c>
       <c r="K6" s="9">
-        <v>38.639307000000002</v>
+        <v>4.1449069999999999</v>
       </c>
       <c r="L6" s="10">
-        <v>38.124322999999997</v>
+        <v>4.0054319999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2994,37 +4247,37 @@
       </c>
       <c r="B7" s="15">
         <f t="shared" si="0"/>
-        <v>42.060614000000001</v>
+        <v>5.7852269999999999</v>
       </c>
       <c r="C7" s="9">
-        <v>42.489767000000001</v>
+        <v>5.8948989999999997</v>
       </c>
       <c r="D7" s="9">
-        <v>42.060614000000001</v>
+        <v>5.8102609999999997</v>
       </c>
       <c r="E7" s="9">
-        <v>42.539834999999997</v>
+        <v>5.9008599999999998</v>
       </c>
       <c r="F7" s="9">
-        <v>42.674540999999998</v>
+        <v>5.8102609999999997</v>
       </c>
       <c r="G7" s="9">
-        <v>42.549371999999998</v>
+        <v>5.8102609999999997</v>
       </c>
       <c r="H7" s="9">
-        <v>42.284726999999997</v>
+        <v>5.7852269999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>42.605400000000003</v>
+        <v>6.05464</v>
       </c>
       <c r="J7" s="9">
-        <v>42.669772999999999</v>
+        <v>6.3240530000000001</v>
       </c>
       <c r="K7" s="9">
-        <v>42.734146000000003</v>
+        <v>5.8555599999999997</v>
       </c>
       <c r="L7" s="10">
-        <v>42.600631999999997</v>
+        <v>5.8197979999999996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3033,37 +4286,37 @@
       </c>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>58.414935999999997</v>
+        <v>13.509988999999999</v>
       </c>
       <c r="C8" s="9">
-        <v>58.900117999999999</v>
+        <v>15.674829000000001</v>
       </c>
       <c r="D8" s="9">
-        <v>58.839320999999998</v>
+        <v>14.145374</v>
       </c>
       <c r="E8" s="9">
-        <v>58.710574999999999</v>
+        <v>14.135838</v>
       </c>
       <c r="F8" s="9">
-        <v>58.864355000000003</v>
+        <v>15.394688</v>
       </c>
       <c r="G8" s="9">
-        <v>58.809519000000002</v>
+        <v>14.93454</v>
       </c>
       <c r="H8" s="9">
-        <v>58.465004</v>
+        <v>13.509988999999999</v>
       </c>
       <c r="I8" s="9">
-        <v>58.715342999999997</v>
+        <v>13.524293999999999</v>
       </c>
       <c r="J8" s="9">
-        <v>58.414935999999997</v>
+        <v>13.509988999999999</v>
       </c>
       <c r="K8" s="9">
-        <v>58.950186000000002</v>
+        <v>13.809203999999999</v>
       </c>
       <c r="L8" s="10">
-        <v>58.610439</v>
+        <v>15.360117000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3072,37 +4325,37 @@
       </c>
       <c r="B9" s="15">
         <f t="shared" si="0"/>
-        <v>92.580318000000005</v>
+        <v>46.560763999999999</v>
       </c>
       <c r="C9" s="9">
-        <v>93.899964999999995</v>
+        <v>46.914816000000002</v>
       </c>
       <c r="D9" s="9">
-        <v>92.890263000000004</v>
+        <v>48.050879999999999</v>
       </c>
       <c r="E9" s="9">
-        <v>93.430280999999994</v>
+        <v>48.300027999999998</v>
       </c>
       <c r="F9" s="9">
-        <v>94.629525999999998</v>
+        <v>49.585104000000001</v>
       </c>
       <c r="G9" s="9">
-        <v>94.424486000000002</v>
+        <v>48.289299</v>
       </c>
       <c r="H9" s="9">
-        <v>92.580318000000005</v>
+        <v>50.694941999999998</v>
       </c>
       <c r="I9" s="9">
-        <v>94.289779999999993</v>
+        <v>46.560763999999999</v>
       </c>
       <c r="J9" s="9">
-        <v>94.795226999999997</v>
+        <v>50.020218</v>
       </c>
       <c r="K9" s="9">
-        <v>93.190669999999997</v>
+        <v>50.729512999999997</v>
       </c>
       <c r="L9" s="10">
-        <v>93.375444000000002</v>
+        <v>50.525664999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3111,37 +4364,37 @@
       </c>
       <c r="B10" s="15">
         <f t="shared" si="0"/>
-        <v>681.93554900000004</v>
+        <v>193.79496599999999</v>
       </c>
       <c r="C10" s="9">
-        <v>683.60924699999998</v>
+        <v>199.919939</v>
       </c>
       <c r="D10" s="9">
-        <v>682.94525099999998</v>
+        <v>197.205544</v>
       </c>
       <c r="E10" s="9">
-        <v>683.19439899999998</v>
+        <v>197.454691</v>
       </c>
       <c r="F10" s="9">
-        <v>683.86912299999995</v>
+        <v>197.82543200000001</v>
       </c>
       <c r="G10" s="9">
-        <v>682.24549300000001</v>
+        <v>197.969675</v>
       </c>
       <c r="H10" s="9">
-        <v>683.17532500000004</v>
+        <v>199.97000700000001</v>
       </c>
       <c r="I10" s="9">
-        <v>682.52563499999997</v>
+        <v>193.79496599999999</v>
       </c>
       <c r="J10" s="9">
-        <v>683.56990800000005</v>
+        <v>196.86460500000001</v>
       </c>
       <c r="K10" s="9">
-        <v>684.14568899999995</v>
+        <v>199.06044</v>
       </c>
       <c r="L10" s="10">
-        <v>681.93554900000004</v>
+        <v>199.655294</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3150,42 +4403,45 @@
       </c>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>1103.225946</v>
+        <v>1028.5043720000001</v>
       </c>
       <c r="C11" s="12">
-        <v>1103.225946</v>
+        <v>1030.5297370000001</v>
       </c>
       <c r="D11" s="12">
-        <v>1104.259491</v>
+        <v>1030.900478</v>
       </c>
       <c r="E11" s="12">
-        <v>1103.914976</v>
+        <v>1032.0794579999999</v>
       </c>
       <c r="F11" s="12">
-        <v>1258.170605</v>
+        <v>1031.2604899999999</v>
       </c>
       <c r="G11" s="12">
-        <v>1103.4452920000001</v>
+        <v>1031.359434</v>
       </c>
       <c r="H11" s="12">
-        <v>1250.6151199999999</v>
+        <v>1030.814648</v>
       </c>
       <c r="I11" s="12">
-        <v>1104.54917</v>
+        <v>1028.5043720000001</v>
       </c>
       <c r="J11" s="12">
-        <v>1247.37978</v>
+        <v>1029.8299790000001</v>
       </c>
       <c r="K11" s="12">
-        <v>1105.480194</v>
+        <v>1030.8051109999999</v>
       </c>
       <c r="L11" s="13">
-        <v>1251.1599060000001</v>
+        <v>1031.0792919999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3232,37 +4488,37 @@
       </c>
       <c r="B15" s="14">
         <f>MIN(C15:L15)</f>
-        <v>50.399303000000003</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="C15" s="6">
-        <v>50.660372000000002</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="D15" s="6">
-        <v>50.799847</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="E15" s="6">
-        <v>51.205157999999997</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="F15" s="6">
-        <v>50.755738999999998</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="G15" s="6">
-        <v>50.489902000000001</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="H15" s="6">
-        <v>50.399303000000003</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="I15" s="6">
-        <v>51.695107999999998</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="J15" s="6">
-        <v>50.485134000000002</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="K15" s="6">
-        <v>50.455331999999999</v>
+        <v>33.985376000000002</v>
       </c>
       <c r="L15" s="7">
-        <v>50.430298000000001</v>
+        <v>33.985376000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3271,37 +4527,37 @@
       </c>
       <c r="B16" s="15">
         <f t="shared" ref="B16:B23" si="1">MIN(C16:L16)</f>
-        <v>72.424412000000004</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="C16" s="9">
-        <v>72.720050999999998</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="D16" s="9">
-        <v>72.424412000000004</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="E16" s="9">
-        <v>73.019266000000002</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="F16" s="9">
-        <v>72.869062</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="G16" s="9">
-        <v>72.735547999999994</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="H16" s="9">
-        <v>72.704554000000002</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="I16" s="9">
-        <v>72.510242000000005</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="J16" s="9">
-        <v>72.715282000000002</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="K16" s="9">
-        <v>72.774887000000007</v>
+        <v>33.249854999999997</v>
       </c>
       <c r="L16" s="10">
-        <v>72.588920999999999</v>
+        <v>33.249854999999997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3310,37 +4566,37 @@
       </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
-        <v>36.594867999999998</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="C17" s="9">
-        <v>37.385224999999998</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="D17" s="9">
-        <v>36.594867999999998</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="E17" s="9">
-        <v>37.440061999999998</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="F17" s="9">
-        <v>37.289858000000002</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="G17" s="9">
-        <v>37.375689000000001</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="H17" s="9">
-        <v>36.729574</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="I17" s="9">
-        <v>37.449598000000002</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="J17" s="9">
-        <v>37.375689000000001</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="K17" s="9">
-        <v>37.235022000000001</v>
+        <v>33.919811000000003</v>
       </c>
       <c r="L17" s="10">
-        <v>37.059784000000001</v>
+        <v>33.919811000000003</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3349,37 +4605,37 @@
       </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
-        <v>37.934780000000003</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="C18" s="9">
-        <v>38.673878000000002</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="D18" s="9">
-        <v>38.390160000000002</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="E18" s="9">
-        <v>37.934780000000003</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="F18" s="9">
-        <v>38.560628999999999</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="G18" s="9">
-        <v>38.694142999999997</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="H18" s="9">
-        <v>38.599967999999997</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="I18" s="9">
-        <v>38.005113999999999</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="J18" s="9">
-        <v>38.650036</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="K18" s="9">
-        <v>38.695335</v>
+        <v>34.830570000000002</v>
       </c>
       <c r="L18" s="10">
-        <v>38.490295000000003</v>
+        <v>34.830570000000002</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3388,37 +4644,37 @@
       </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
-        <v>42.380094999999997</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="C19" s="9">
-        <v>42.805672000000001</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="D19" s="9">
-        <v>42.434930999999999</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="E19" s="9">
-        <v>42.865276000000001</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="F19" s="9">
-        <v>42.715072999999997</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="G19" s="9">
-        <v>42.779446</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="H19" s="9">
-        <v>42.380094999999997</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="I19" s="9">
-        <v>42.524338</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="J19" s="9">
-        <v>42.505263999999997</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="K19" s="9">
-        <v>42.405127999999998</v>
+        <v>38.164853999999998</v>
       </c>
       <c r="L19" s="10">
-        <v>42.665005000000001</v>
+        <v>38.164853999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3427,37 +4683,37 @@
       </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
-        <v>71.519613000000007</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="C20" s="9">
-        <v>71.724653000000004</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="D20" s="9">
-        <v>71.990489999999994</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="E20" s="9">
-        <v>71.904658999999995</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="F20" s="9">
-        <v>71.904658999999995</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="G20" s="9">
-        <v>71.845055000000002</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="H20" s="9">
-        <v>71.790217999999996</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="I20" s="9">
-        <v>71.824788999999996</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="J20" s="9">
-        <v>71.765184000000005</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="K20" s="9">
-        <v>71.640015000000005</v>
+        <v>48.494338999999997</v>
       </c>
       <c r="L20" s="10">
-        <v>71.519613000000007</v>
+        <v>48.494338999999997</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3466,37 +4722,37 @@
       </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
-        <v>105.473995</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="C21" s="9">
-        <v>105.74460000000001</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="D21" s="9">
-        <v>105.473995</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="E21" s="9">
-        <v>105.909109</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="F21" s="9">
-        <v>105.96990599999999</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="G21" s="9">
-        <v>106.110573</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="H21" s="9">
-        <v>105.589628</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="I21" s="9">
-        <v>106.06050500000001</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="J21" s="9">
-        <v>135.59937500000001</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="K21" s="9">
-        <v>106.045008</v>
+        <v>84.364413999999996</v>
       </c>
       <c r="L21" s="10">
-        <v>105.764866</v>
+        <v>84.364413999999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3505,37 +4761,37 @@
       </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
-        <v>681.325197</v>
+        <v>226.445198</v>
       </c>
       <c r="C22" s="9">
-        <v>681.325197</v>
+        <v>226.445198</v>
       </c>
       <c r="D22" s="9">
-        <v>683.09545500000002</v>
+        <v>226.445198</v>
       </c>
       <c r="E22" s="9">
-        <v>682.61504200000002</v>
+        <v>226.445198</v>
       </c>
       <c r="F22" s="9">
-        <v>684.52000599999997</v>
+        <v>226.445198</v>
       </c>
       <c r="G22" s="9">
-        <v>682.56616599999995</v>
+        <v>226.445198</v>
       </c>
       <c r="H22" s="9">
-        <v>682.11913100000004</v>
+        <v>226.445198</v>
       </c>
       <c r="I22" s="9">
-        <v>684.90982099999997</v>
+        <v>226.445198</v>
       </c>
       <c r="J22" s="9">
-        <v>682.69967999999994</v>
+        <v>226.445198</v>
       </c>
       <c r="K22" s="9">
-        <v>682.25979800000005</v>
+        <v>226.445198</v>
       </c>
       <c r="L22" s="10">
-        <v>682.04522099999997</v>
+        <v>226.445198</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3544,43 +4800,439 @@
       </c>
       <c r="B23" s="16">
         <f t="shared" si="1"/>
-        <v>1103.470325</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="C23" s="12">
-        <v>1255.2392480000001</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="D23" s="12">
-        <v>1104.034185</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="E23" s="12">
-        <v>1260.5750559999999</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="F23" s="12">
-        <v>1104.6147350000001</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="G23" s="12">
-        <v>1103.8804050000001</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="H23" s="12">
-        <v>1103.470325</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="I23" s="12">
-        <v>1260.3855129999999</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="J23" s="12">
-        <v>1105.184555</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="K23" s="12">
-        <v>1250.3099440000001</v>
+        <v>564.62526300000002</v>
       </c>
       <c r="L23" s="13">
-        <v>1103.9805409999999</v>
+        <v>564.62526300000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7</v>
+      </c>
+      <c r="J27" s="3">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14">
+        <f>MIN(C28:L28)</f>
+        <v>35.294294000000001</v>
+      </c>
+      <c r="C28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="D28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="E28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="G28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="H28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="I28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="J28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="K28" s="6">
+        <v>35.294294000000001</v>
+      </c>
+      <c r="L28" s="7">
+        <v>35.294294000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>4</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" ref="B29:B36" si="2">MIN(C29:L29)</f>
+        <v>34.494399999999999</v>
+      </c>
+      <c r="C29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="D29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="E29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="F29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="G29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="H29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="I29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="J29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="K29" s="9">
+        <v>34.494399999999999</v>
+      </c>
+      <c r="L29" s="10">
+        <v>34.494399999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="2"/>
+        <v>35.500526000000001</v>
+      </c>
+      <c r="C30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="D30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="E30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="F30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="G30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="H30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="I30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="J30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="K30" s="9">
+        <v>35.500526000000001</v>
+      </c>
+      <c r="L30" s="10">
+        <v>35.500526000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>16</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="2"/>
+        <v>37.444830000000003</v>
+      </c>
+      <c r="C31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="D31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="E31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="F31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="G31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="H31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="I31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="J31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="K31" s="9">
+        <v>37.444830000000003</v>
+      </c>
+      <c r="L31" s="10">
+        <v>37.444830000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>32</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="2"/>
+        <v>45.66431</v>
+      </c>
+      <c r="C32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="D32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="E32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="F32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="G32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="H32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="I32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="J32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="K32" s="9">
+        <v>45.66431</v>
+      </c>
+      <c r="L32" s="10">
+        <v>45.66431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>64</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" si="2"/>
+        <v>81.934928999999997</v>
+      </c>
+      <c r="C33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="D33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="E33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="F33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="G33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="H33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="I33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="J33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="K33" s="9">
+        <v>81.934928999999997</v>
+      </c>
+      <c r="L33" s="10">
+        <v>81.934928999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>128</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="2"/>
+        <v>129.72474099999999</v>
+      </c>
+      <c r="C34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="D34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="E34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="F34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="G34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="H34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="I34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="J34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="K34" s="9">
+        <v>129.72474099999999</v>
+      </c>
+      <c r="L34" s="10">
+        <v>129.72474099999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>256</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="2"/>
+        <v>245.49961099999999</v>
+      </c>
+      <c r="C35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="D35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="E35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="F35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="G35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="H35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="I35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="J35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="K35" s="9">
+        <v>245.49961099999999</v>
+      </c>
+      <c r="L35" s="10">
+        <v>245.49961099999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>512</v>
+      </c>
+      <c r="B36" s="16">
+        <f t="shared" si="2"/>
+        <v>574.909449</v>
+      </c>
+      <c r="C36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="D36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="E36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="F36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="G36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="H36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="I36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="J36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="K36" s="12">
+        <v>574.909449</v>
+      </c>
+      <c r="L36" s="13">
+        <v>574.909449</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3590,7 +5242,813 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="L11" sqref="A1:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <f>MIN(C3:L3)</f>
+        <v>33.985376000000002</v>
+      </c>
+      <c r="C3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="E3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="F3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="G3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="H3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="I3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="J3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>33.985376000000002</v>
+      </c>
+      <c r="L3" s="7">
+        <v>33.985376000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" ref="B4:B11" si="0">MIN(C4:L4)</f>
+        <v>33.249854999999997</v>
+      </c>
+      <c r="C4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="D4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="E4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="F4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="G4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="H4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="I4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="J4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="K4" s="9">
+        <v>33.249854999999997</v>
+      </c>
+      <c r="L4" s="10">
+        <v>33.249854999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15">
+        <f t="shared" si="0"/>
+        <v>33.919811000000003</v>
+      </c>
+      <c r="C5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="E5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="F5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="G5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="H5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="I5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="J5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="K5" s="9">
+        <v>33.919811000000003</v>
+      </c>
+      <c r="L5" s="10">
+        <v>33.919811000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" si="0"/>
+        <v>34.830570000000002</v>
+      </c>
+      <c r="C6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="D6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="F6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="G6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="I6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="J6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="K6" s="9">
+        <v>34.830570000000002</v>
+      </c>
+      <c r="L6" s="10">
+        <v>34.830570000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>32</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="0"/>
+        <v>38.164853999999998</v>
+      </c>
+      <c r="C7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="D7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="E7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="F7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="G7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="H7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="I7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="J7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="K7" s="9">
+        <v>38.164853999999998</v>
+      </c>
+      <c r="L7" s="10">
+        <v>38.164853999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="0"/>
+        <v>48.494338999999997</v>
+      </c>
+      <c r="C8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="D8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="E8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="F8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="G8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="H8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="I8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="J8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="K8" s="9">
+        <v>48.494338999999997</v>
+      </c>
+      <c r="L8" s="10">
+        <v>48.494338999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>128</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="0"/>
+        <v>84.364413999999996</v>
+      </c>
+      <c r="C9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="D9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="E9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="F9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="G9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="H9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="I9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="J9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="K9" s="9">
+        <v>84.364413999999996</v>
+      </c>
+      <c r="L9" s="10">
+        <v>84.364413999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>256</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="0"/>
+        <v>226.445198</v>
+      </c>
+      <c r="C10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="D10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="E10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="F10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="G10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="H10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="I10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="J10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="K10" s="9">
+        <v>226.445198</v>
+      </c>
+      <c r="L10" s="10">
+        <v>226.445198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>512</v>
+      </c>
+      <c r="B11" s="16">
+        <f t="shared" si="0"/>
+        <v>564.62526300000002</v>
+      </c>
+      <c r="C11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="D11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="E11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="F11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="G11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="H11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="I11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="J11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="K11" s="12">
+        <v>564.62526300000002</v>
+      </c>
+      <c r="L11" s="13">
+        <v>564.62526300000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>9</v>
+      </c>
+      <c r="L14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="14">
+        <f>MIN(C15:L15)</f>
+        <v>33.810138999999999</v>
+      </c>
+      <c r="C15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="H15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="I15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="J15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="K15" s="6">
+        <v>33.810138999999999</v>
+      </c>
+      <c r="L15" s="7">
+        <v>33.810138999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>4</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" ref="B16:B23" si="1">MIN(C16:L16)</f>
+        <v>33.839941000000003</v>
+      </c>
+      <c r="C16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="D16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="E16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="F16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="G16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="H16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="I16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="J16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="K16" s="9">
+        <v>33.839941000000003</v>
+      </c>
+      <c r="L16" s="10">
+        <v>33.839941000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>34.130811999999999</v>
+      </c>
+      <c r="C17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="D17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="F17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="G17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="H17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="I17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="J17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="K17" s="9">
+        <v>34.130811999999999</v>
+      </c>
+      <c r="L17" s="10">
+        <v>34.130811999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>35.090446</v>
+      </c>
+      <c r="C18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="D18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="E18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="F18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="G18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="H18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="I18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="J18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="K18" s="9">
+        <v>35.090446</v>
+      </c>
+      <c r="L18" s="10">
+        <v>35.090446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>32</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>38.465260999999998</v>
+      </c>
+      <c r="C19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="D19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="E19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="G19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="H19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="I19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="J19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="K19" s="9">
+        <v>38.465260999999998</v>
+      </c>
+      <c r="L19" s="10">
+        <v>38.465260999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>64</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>61.450004999999997</v>
+      </c>
+      <c r="C20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="E20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="F20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="G20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="H20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="I20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="J20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="K20" s="9">
+        <v>61.450004999999997</v>
+      </c>
+      <c r="L20" s="10">
+        <v>61.450004999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>128</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>96.954106999999993</v>
+      </c>
+      <c r="C21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="D21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="E21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="F21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="G21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="H21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="I21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="J21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="K21" s="9">
+        <v>96.954106999999993</v>
+      </c>
+      <c r="L21" s="10">
+        <v>96.954106999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>256</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>240.734816</v>
+      </c>
+      <c r="C22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="D22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="E22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="F22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="G22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="H22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="I22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="J22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="K22" s="9">
+        <v>240.734816</v>
+      </c>
+      <c r="L22" s="10">
+        <v>240.734816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>512</v>
+      </c>
+      <c r="B23" s="16">
+        <f t="shared" si="1"/>
+        <v>565.98901699999999</v>
+      </c>
+      <c r="C23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="D23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="E23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="F23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="G23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="H23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="I23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="J23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="K23" s="12">
+        <v>565.98901699999999</v>
+      </c>
+      <c r="L23" s="13">
+        <v>565.98901699999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3644,37 +6102,37 @@
       </c>
       <c r="B3" s="14">
         <f>MIN(C3:L3)</f>
-        <v>50.834417000000002</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="C3" s="6">
-        <v>50.834417000000002</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="D3" s="6">
-        <v>51.379204000000001</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="E3" s="6">
-        <v>51.006079</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="F3" s="6">
-        <v>51.275492</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="G3" s="6">
-        <v>50.985813</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="H3" s="6">
-        <v>51.789284000000002</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="I3" s="6">
-        <v>51.279068000000002</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="J3" s="6">
-        <v>51.254033999999997</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="K3" s="6">
-        <v>51.184893000000002</v>
+        <v>35.294294000000001</v>
       </c>
       <c r="L3" s="7">
-        <v>51.889420000000001</v>
+        <v>35.294294000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3683,37 +6141,37 @@
       </c>
       <c r="B4" s="15">
         <f t="shared" ref="B4:B11" si="0">MIN(C4:L4)</f>
-        <v>73.305368000000001</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="C4" s="9">
-        <v>73.305368000000001</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="D4" s="9">
-        <v>73.854922999999999</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="E4" s="9">
-        <v>73.565245000000004</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="F4" s="9">
-        <v>73.450804000000005</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="G4" s="9">
-        <v>73.344707</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="H4" s="9">
-        <v>74.094533999999996</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="I4" s="9">
-        <v>73.719025000000002</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="J4" s="9">
-        <v>73.421001000000004</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="K4" s="9">
-        <v>73.525906000000006</v>
+        <v>34.494399999999999</v>
       </c>
       <c r="L4" s="10">
-        <v>73.400735999999995</v>
+        <v>34.494399999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3722,37 +6180,37 @@
       </c>
       <c r="B5" s="15">
         <f t="shared" si="0"/>
-        <v>37.239789999999999</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="C5" s="9">
-        <v>37.795304999999999</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="D5" s="9">
-        <v>38.100481000000002</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="E5" s="9">
-        <v>37.355423000000002</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="F5" s="9">
-        <v>37.239789999999999</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="G5" s="9">
-        <v>37.615299</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="H5" s="9">
-        <v>37.949084999999997</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="I5" s="9">
-        <v>37.790537</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="J5" s="9">
-        <v>37.928820000000002</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="K5" s="9">
-        <v>39.035082000000003</v>
+        <v>35.500526000000001</v>
       </c>
       <c r="L5" s="10">
-        <v>37.959814000000001</v>
+        <v>35.500526000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3761,37 +6219,37 @@
       </c>
       <c r="B6" s="15">
         <f t="shared" si="0"/>
-        <v>40.234327</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="C6" s="9">
-        <v>40.234327</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="D6" s="9">
-        <v>40.684938000000002</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="E6" s="9">
-        <v>40.525198000000003</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="F6" s="9">
-        <v>40.415525000000002</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="G6" s="9">
-        <v>40.290356000000003</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="H6" s="9">
-        <v>40.450096000000002</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="I6" s="9">
-        <v>40.739775000000002</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="J6" s="9">
-        <v>41.949748999999997</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="K6" s="9">
-        <v>40.470362000000002</v>
+        <v>37.444830000000003</v>
       </c>
       <c r="L6" s="10">
-        <v>40.374994000000001</v>
+        <v>37.444830000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3800,37 +6258,37 @@
       </c>
       <c r="B7" s="15">
         <f t="shared" si="0"/>
-        <v>49.235821000000001</v>
+        <v>45.66431</v>
       </c>
       <c r="C7" s="9">
-        <v>49.735308000000003</v>
+        <v>45.66431</v>
       </c>
       <c r="D7" s="9">
-        <v>49.824714999999998</v>
+        <v>45.66431</v>
       </c>
       <c r="E7" s="9">
-        <v>49.610137999999999</v>
+        <v>45.66431</v>
       </c>
       <c r="F7" s="9">
-        <v>49.235821000000001</v>
+        <v>45.66431</v>
       </c>
       <c r="G7" s="9">
-        <v>49.484968000000002</v>
+        <v>45.66431</v>
       </c>
       <c r="H7" s="9">
-        <v>49.784184000000003</v>
+        <v>45.66431</v>
       </c>
       <c r="I7" s="9">
-        <v>49.575566999999999</v>
+        <v>45.66431</v>
       </c>
       <c r="J7" s="9">
-        <v>49.579143999999999</v>
+        <v>45.66431</v>
       </c>
       <c r="K7" s="9">
-        <v>49.600600999999997</v>
+        <v>45.66431</v>
       </c>
       <c r="L7" s="10">
-        <v>49.425364000000002</v>
+        <v>45.66431</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3839,37 +6297,37 @@
       </c>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>90.905428000000001</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="C8" s="9">
-        <v>90.955495999999997</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="D8" s="9">
-        <v>91.600418000000005</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="E8" s="9">
-        <v>91.264247999999995</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="F8" s="9">
-        <v>90.905428000000001</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="G8" s="9">
-        <v>91.695785999999998</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="H8" s="9">
-        <v>91.630219999999994</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="I8" s="9">
-        <v>91.444254000000001</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="J8" s="9">
-        <v>91.915131000000002</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="K8" s="9">
-        <v>91.644525999999999</v>
+        <v>81.934928999999997</v>
       </c>
       <c r="L8" s="10">
-        <v>92.389583999999999</v>
+        <v>81.934928999999997</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3878,37 +6336,37 @@
       </c>
       <c r="B9" s="15">
         <f t="shared" si="0"/>
-        <v>138.164759</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="C9" s="9">
-        <v>138.86928599999999</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="D9" s="9">
-        <v>138.85974899999999</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="E9" s="9">
-        <v>138.98491899999999</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="F9" s="9">
-        <v>138.380527</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="G9" s="9">
-        <v>138.164759</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="H9" s="9">
-        <v>138.46993399999999</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="I9" s="9">
-        <v>138.83471499999999</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="J9" s="9">
-        <v>138.759613</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="K9" s="9">
-        <v>138.46993399999999</v>
+        <v>129.72474099999999</v>
       </c>
       <c r="L9" s="10">
-        <v>139.780045</v>
+        <v>129.72474099999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3917,37 +6375,37 @@
       </c>
       <c r="B10" s="15">
         <f t="shared" si="0"/>
-        <v>685.96482300000002</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="C10" s="9">
-        <v>688.26556200000005</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="D10" s="9">
-        <v>687.58487700000001</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="E10" s="9">
-        <v>687.98422800000003</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="F10" s="9">
-        <v>685.96482300000002</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="G10" s="9">
-        <v>686.97452499999997</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="H10" s="9">
-        <v>714.67995599999995</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="I10" s="9">
-        <v>686.70511199999999</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="J10" s="9">
-        <v>689.36586399999999</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="K10" s="9">
-        <v>685.97555199999999</v>
+        <v>245.49961099999999</v>
       </c>
       <c r="L10" s="10">
-        <v>687.49427800000001</v>
+        <v>245.49961099999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3956,37 +6414,37 @@
       </c>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>1111.0198499999999</v>
+        <v>574.909449</v>
       </c>
       <c r="C11" s="12">
-        <v>1273.3352179999999</v>
+        <v>574.909449</v>
       </c>
       <c r="D11" s="12">
-        <v>1265.4447560000001</v>
+        <v>574.909449</v>
       </c>
       <c r="E11" s="12">
-        <v>1114.125252</v>
+        <v>574.909449</v>
       </c>
       <c r="F11" s="12">
-        <v>1258.1908699999999</v>
+        <v>574.909449</v>
       </c>
       <c r="G11" s="12">
-        <v>1111.0198499999999</v>
+        <v>574.909449</v>
       </c>
       <c r="H11" s="12">
-        <v>1264.1489509999999</v>
+        <v>574.909449</v>
       </c>
       <c r="I11" s="12">
-        <v>1265.3791900000001</v>
+        <v>574.909449</v>
       </c>
       <c r="J11" s="12">
-        <v>1114.350557</v>
+        <v>574.909449</v>
       </c>
       <c r="K11" s="12">
-        <v>1257.8547000000001</v>
+        <v>574.909449</v>
       </c>
       <c r="L11" s="13">
-        <v>1112.4849320000001</v>
+        <v>574.909449</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -4038,37 +6496,37 @@
       </c>
       <c r="B15" s="14">
         <f>MIN(C15:L15)</f>
-        <v>50.704478999999999</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="C15" s="6">
-        <v>51.925182</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="D15" s="6">
-        <v>51.469802999999999</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="E15" s="6">
-        <v>51.370859000000003</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="F15" s="6">
-        <v>51.350594000000001</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="G15" s="6">
-        <v>51.379204000000001</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="H15" s="6">
-        <v>50.704478999999999</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="I15" s="6">
-        <v>50.995350000000002</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="J15" s="6">
-        <v>51.314830999999998</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="K15" s="6">
-        <v>51.245688999999999</v>
+        <v>34.450293000000002</v>
       </c>
       <c r="L15" s="7">
-        <v>51.169395000000002</v>
+        <v>34.450293000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4077,37 +6535,37 @@
       </c>
       <c r="B16" s="15">
         <f t="shared" ref="B16:B23" si="1">MIN(C16:L16)</f>
-        <v>72.984695000000002</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="C16" s="9">
-        <v>73.645115000000004</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="D16" s="9">
-        <v>73.604584000000003</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="E16" s="9">
-        <v>73.61412</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="F16" s="9">
-        <v>73.570013000000003</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="G16" s="9">
-        <v>73.275565999999998</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="H16" s="9">
-        <v>73.266029000000003</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="I16" s="9">
-        <v>73.640347000000006</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="J16" s="9">
-        <v>72.984695000000002</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="K16" s="9">
-        <v>72.989463999999998</v>
+        <v>34.500360000000001</v>
       </c>
       <c r="L16" s="10">
-        <v>73.529482000000002</v>
+        <v>34.500360000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4116,37 +6574,37 @@
       </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
-        <v>37.260055999999999</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="C17" s="9">
-        <v>38.349628000000003</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="D17" s="9">
-        <v>38.005113999999999</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="E17" s="9">
-        <v>37.446021999999999</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="F17" s="9">
-        <v>37.544966000000002</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="G17" s="9">
-        <v>37.724972000000001</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="H17" s="9">
-        <v>37.626027999999998</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="I17" s="9">
-        <v>37.944316999999998</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="J17" s="9">
-        <v>37.800074000000002</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="K17" s="9">
-        <v>37.260055999999999</v>
+        <v>34.910440000000001</v>
       </c>
       <c r="L17" s="10">
-        <v>37.875174999999999</v>
+        <v>34.910440000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4155,37 +6613,37 @@
       </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
-        <v>40.121077999999997</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="C18" s="9">
-        <v>40.324925999999998</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="D18" s="9">
-        <v>40.39526</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="E18" s="9">
-        <v>40.345191999999997</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="F18" s="9">
-        <v>40.320157999999999</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="G18" s="9">
-        <v>40.154457000000001</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="H18" s="9">
-        <v>40.524006</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="I18" s="9">
-        <v>40.675401999999998</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="J18" s="9">
-        <v>40.121077999999997</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="K18" s="9">
-        <v>40.454864999999998</v>
+        <v>36.885738000000003</v>
       </c>
       <c r="L18" s="10">
-        <v>40.47513</v>
+        <v>36.885738000000003</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4194,37 +6652,37 @@
       </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
-        <v>49.104691000000003</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="C19" s="9">
-        <v>49.829483000000003</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="D19" s="9">
-        <v>50.339699000000003</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="E19" s="9">
-        <v>49.389600999999999</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="F19" s="9">
-        <v>49.300193999999998</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="G19" s="9">
-        <v>49.27516</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="H19" s="9">
-        <v>49.455165999999998</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="I19" s="9">
-        <v>49.430132</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="J19" s="9">
-        <v>49.434899999999999</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="K19" s="9">
-        <v>49.104691000000003</v>
+        <v>44.940710000000003</v>
       </c>
       <c r="L19" s="10">
-        <v>49.835442999999998</v>
+        <v>44.940710000000003</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4233,37 +6691,37 @@
       </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
-        <v>162.88995700000001</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="C20" s="9">
-        <v>173.50554500000001</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="D20" s="9">
-        <v>173.50554500000001</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="E20" s="9">
-        <v>173.23493999999999</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="F20" s="9">
-        <v>173.785686</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="G20" s="9">
-        <v>173.89416700000001</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="H20" s="9">
-        <v>162.88995700000001</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="I20" s="9">
-        <v>173.364878</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="J20" s="9">
-        <v>162.89472599999999</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="K20" s="9">
-        <v>173.63429099999999</v>
+        <v>162.63008099999999</v>
       </c>
       <c r="L20" s="10">
-        <v>173.31004100000001</v>
+        <v>162.63008099999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4272,37 +6730,37 @@
       </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
-        <v>465.699434</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="C21" s="9">
-        <v>506.01959199999999</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="D21" s="9">
-        <v>506.32953600000002</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="E21" s="9">
-        <v>505.70488</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="F21" s="9">
-        <v>506.28900499999997</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="G21" s="9">
-        <v>505.70011099999999</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="H21" s="9">
-        <v>465.699434</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="I21" s="9">
-        <v>505.89084600000001</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="J21" s="9">
-        <v>465.74473399999999</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="K21" s="9">
-        <v>505.795479</v>
+        <v>495.95475199999998</v>
       </c>
       <c r="L21" s="10">
-        <v>506.13522499999999</v>
+        <v>495.95475199999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4311,37 +6769,37 @@
       </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
-        <v>685.47010399999999</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="C22" s="9">
-        <v>687.01982499999997</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="D22" s="9">
-        <v>688.88068199999998</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="E22" s="9">
-        <v>689.45050200000003</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="F22" s="9">
-        <v>690.11449800000003</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="G22" s="9">
-        <v>690.71531300000004</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="H22" s="9">
-        <v>687.76488300000005</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="I22" s="9">
-        <v>689.57924800000001</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="J22" s="9">
-        <v>685.47010399999999</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="K22" s="9">
-        <v>687.84952199999998</v>
+        <v>244.96913000000001</v>
       </c>
       <c r="L22" s="10">
-        <v>689.94998899999996</v>
+        <v>244.96913000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -4350,37 +6808,37 @@
       </c>
       <c r="B23" s="16">
         <f t="shared" si="1"/>
-        <v>1112.259626</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="C23" s="12">
-        <v>1261.1091140000001</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="D23" s="12">
-        <v>1112.9045490000001</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="E23" s="12">
-        <v>1260.834932</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="F23" s="12">
-        <v>1250.69499</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="G23" s="12">
-        <v>1113.364697</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="H23" s="12">
-        <v>1126.555204</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="I23" s="12">
-        <v>1120.275259</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="J23" s="12">
-        <v>1258.1992150000001</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="K23" s="12">
-        <v>1112.7448079999999</v>
+        <v>572.35956199999998</v>
       </c>
       <c r="L23" s="13">
-        <v>1112.259626</v>
+        <v>572.35956199999998</v>
       </c>
     </row>
   </sheetData>

--- a/block-stride/block-stride.xlsx
+++ b/block-stride/block-stride.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="8260" windowWidth="28160" windowHeight="17440"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16220"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="PEACH2" sheetId="3" r:id="rId1"/>
     <sheet name="CPU1" sheetId="1" r:id="rId2"/>
     <sheet name="CPU0" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -436,7 +436,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:f>PEACH2!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -472,36 +472,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>PEACH2!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.0493739999999998</c:v>
+                  <c:v>3.074408</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1650070000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3795829999999998</c:v>
+                  <c:v>3.3748149999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8647649999999998</c:v>
+                  <c:v>3.8445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7852269999999999</c:v>
+                  <c:v>5.7947639999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.509988999999999</c:v>
+                  <c:v>13.478994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.560763999999999</c:v>
+                  <c:v>45.969486000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>193.79496599999999</c:v>
+                  <c:v>193.49932699999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1028.5043720000001</c:v>
+                  <c:v>1027.4446009999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,7 +545,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:f>PEACH2!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -581,7 +581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$23</c:f>
+              <c:f>PEACH2!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -654,7 +654,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:f>PEACH2!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -690,7 +690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$36</c:f>
+              <c:f>PEACH2!$B$28:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4036,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4091,37 +4091,37 @@
       </c>
       <c r="B3" s="14">
         <f>MIN(C3:L3)</f>
-        <v>3.0493739999999998</v>
+        <v>3.074408</v>
       </c>
       <c r="C3" s="6">
-        <v>3.0601020000000001</v>
+        <v>3.0851359999999999</v>
       </c>
       <c r="D3" s="6">
-        <v>3.0553340000000002</v>
+        <v>3.080368</v>
       </c>
       <c r="E3" s="6">
+        <v>3.074408</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.1006339999999999</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3.1101700000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3.1042100000000001</v>
+      </c>
+      <c r="I3" s="6">
         <v>3.0851359999999999</v>
       </c>
-      <c r="F3" s="6">
-        <v>3.1042100000000001</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3.0493739999999998</v>
-      </c>
-      <c r="H3" s="6">
-        <v>3.0553340000000002</v>
-      </c>
-      <c r="I3" s="6">
-        <v>3.074408</v>
-      </c>
       <c r="J3" s="6">
-        <v>3.0899049999999999</v>
+        <v>3.1149390000000001</v>
       </c>
       <c r="K3" s="6">
-        <v>3.0839439999999998</v>
+        <v>3.080368</v>
       </c>
       <c r="L3" s="7">
-        <v>3.0708310000000001</v>
+        <v>3.0756000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4133,34 +4133,34 @@
         <v>3.1650070000000001</v>
       </c>
       <c r="C4" s="9">
-        <v>3.2246109999999999</v>
+        <v>3.2353399999999999</v>
       </c>
       <c r="D4" s="9">
-        <v>3.2150750000000001</v>
+        <v>3.2448769999999998</v>
       </c>
       <c r="E4" s="9">
+        <v>3.2043460000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3.3140179999999999</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3.2353399999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3.175735</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3.2055380000000002</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3.1650070000000001</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3.1948089999999998</v>
+      </c>
+      <c r="L4" s="10">
         <v>3.2496450000000001</v>
-      </c>
-      <c r="F4" s="9">
-        <v>3.2150750000000001</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3.230572</v>
-      </c>
-      <c r="H4" s="9">
-        <v>3.1852719999999999</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3.1650070000000001</v>
-      </c>
-      <c r="J4" s="9">
-        <v>3.2603740000000001</v>
-      </c>
-      <c r="K4" s="9">
-        <v>3.2007690000000002</v>
-      </c>
-      <c r="L4" s="10">
-        <v>3.219843</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,37 +4169,37 @@
       </c>
       <c r="B5" s="15">
         <f t="shared" si="0"/>
-        <v>3.3795829999999998</v>
+        <v>3.3748149999999999</v>
       </c>
       <c r="C5" s="9">
-        <v>3.4809109999999999</v>
+        <v>3.3998490000000001</v>
       </c>
       <c r="D5" s="9">
-        <v>3.3903120000000002</v>
+        <v>3.454685</v>
       </c>
       <c r="E5" s="9">
-        <v>3.3950809999999998</v>
+        <v>3.3748149999999999</v>
       </c>
       <c r="F5" s="9">
-        <v>3.3795829999999998</v>
+        <v>3.4451480000000001</v>
       </c>
       <c r="G5" s="9">
-        <v>3.454685</v>
+        <v>3.4749509999999999</v>
       </c>
       <c r="H5" s="9">
-        <v>3.3795829999999998</v>
+        <v>3.415346</v>
       </c>
       <c r="I5" s="9">
-        <v>3.3843519999999998</v>
+        <v>3.420115</v>
       </c>
       <c r="J5" s="9">
-        <v>3.415346</v>
+        <v>3.465414</v>
       </c>
       <c r="K5" s="9">
-        <v>3.420115</v>
+        <v>3.4749509999999999</v>
       </c>
       <c r="L5" s="10">
-        <v>3.4248829999999999</v>
+        <v>3.465414</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4208,37 +4208,37 @@
       </c>
       <c r="B6" s="15">
         <f t="shared" si="0"/>
+        <v>3.8445</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.8445</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.8599969999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.1496750000000002</v>
+      </c>
+      <c r="F6" s="9">
         <v>3.8647649999999998</v>
       </c>
-      <c r="C6" s="9">
-        <v>3.8647649999999998</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3.989935</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="G6" s="9">
+        <v>3.9649009999999998</v>
+      </c>
+      <c r="H6" s="9">
         <v>3.9947029999999999</v>
       </c>
-      <c r="F6" s="9">
-        <v>4.0006640000000004</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3.9947029999999999</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4.1854380000000004</v>
-      </c>
       <c r="I6" s="9">
-        <v>4.1651730000000002</v>
+        <v>4.050732</v>
       </c>
       <c r="J6" s="9">
-        <v>3.9553639999999999</v>
+        <v>3.9494039999999999</v>
       </c>
       <c r="K6" s="9">
-        <v>4.1449069999999999</v>
+        <v>3.8445</v>
       </c>
       <c r="L6" s="10">
-        <v>4.0054319999999999</v>
+        <v>3.8599969999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4247,37 +4247,37 @@
       </c>
       <c r="B7" s="15">
         <f t="shared" si="0"/>
-        <v>5.7852269999999999</v>
+        <v>5.7947639999999998</v>
       </c>
       <c r="C7" s="9">
-        <v>5.8948989999999997</v>
+        <v>6.2644479999999998</v>
       </c>
       <c r="D7" s="9">
-        <v>5.8102609999999997</v>
+        <v>5.815029</v>
       </c>
       <c r="E7" s="9">
-        <v>5.9008599999999998</v>
+        <v>5.7947639999999998</v>
       </c>
       <c r="F7" s="9">
-        <v>5.8102609999999997</v>
+        <v>6.115437</v>
       </c>
       <c r="G7" s="9">
-        <v>5.8102609999999997</v>
+        <v>6.154776</v>
       </c>
       <c r="H7" s="9">
-        <v>5.7852269999999999</v>
+        <v>5.7947639999999998</v>
       </c>
       <c r="I7" s="9">
-        <v>6.05464</v>
+        <v>5.8603290000000001</v>
       </c>
       <c r="J7" s="9">
-        <v>6.3240530000000001</v>
+        <v>6.2203410000000003</v>
       </c>
       <c r="K7" s="9">
-        <v>5.8555599999999997</v>
+        <v>6.3049790000000003</v>
       </c>
       <c r="L7" s="10">
-        <v>5.8197979999999996</v>
+        <v>6.0343739999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4286,37 +4286,37 @@
       </c>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>13.509988999999999</v>
+        <v>13.478994</v>
       </c>
       <c r="C8" s="9">
-        <v>15.674829000000001</v>
+        <v>13.524293999999999</v>
       </c>
       <c r="D8" s="9">
-        <v>14.145374</v>
+        <v>15.544891</v>
       </c>
       <c r="E8" s="9">
-        <v>14.135838</v>
+        <v>13.840199</v>
       </c>
       <c r="F8" s="9">
-        <v>15.394688</v>
+        <v>14.309882999999999</v>
       </c>
       <c r="G8" s="9">
-        <v>14.93454</v>
+        <v>14.044046</v>
       </c>
       <c r="H8" s="9">
-        <v>13.509988999999999</v>
+        <v>14.780760000000001</v>
       </c>
       <c r="I8" s="9">
-        <v>13.524293999999999</v>
+        <v>13.478994</v>
       </c>
       <c r="J8" s="9">
-        <v>13.509988999999999</v>
+        <v>13.910532</v>
       </c>
       <c r="K8" s="9">
-        <v>13.809203999999999</v>
+        <v>14.7295</v>
       </c>
       <c r="L8" s="10">
-        <v>15.360117000000001</v>
+        <v>15.575886000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4325,37 +4325,37 @@
       </c>
       <c r="B9" s="15">
         <f t="shared" si="0"/>
-        <v>46.560763999999999</v>
+        <v>45.969486000000003</v>
       </c>
       <c r="C9" s="9">
-        <v>46.914816000000002</v>
+        <v>48.240423</v>
       </c>
       <c r="D9" s="9">
-        <v>48.050879999999999</v>
+        <v>45.969486000000003</v>
       </c>
       <c r="E9" s="9">
-        <v>48.300027999999998</v>
+        <v>50.810575</v>
       </c>
       <c r="F9" s="9">
-        <v>49.585104000000001</v>
+        <v>46.374797999999998</v>
       </c>
       <c r="G9" s="9">
-        <v>48.289299</v>
+        <v>49.200057999999999</v>
       </c>
       <c r="H9" s="9">
-        <v>50.694941999999998</v>
+        <v>48.130750999999997</v>
       </c>
       <c r="I9" s="9">
-        <v>46.560763999999999</v>
+        <v>51.200389999999999</v>
       </c>
       <c r="J9" s="9">
-        <v>50.020218</v>
+        <v>50.685406</v>
       </c>
       <c r="K9" s="9">
-        <v>50.729512999999997</v>
+        <v>47.990084000000003</v>
       </c>
       <c r="L9" s="10">
-        <v>50.525664999999996</v>
+        <v>46.85998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4364,37 +4364,37 @@
       </c>
       <c r="B10" s="15">
         <f t="shared" si="0"/>
-        <v>193.79496599999999</v>
+        <v>193.49932699999999</v>
       </c>
       <c r="C10" s="9">
-        <v>199.919939</v>
+        <v>193.49932699999999</v>
       </c>
       <c r="D10" s="9">
-        <v>197.205544</v>
+        <v>193.75085799999999</v>
       </c>
       <c r="E10" s="9">
+        <v>195.37448900000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>194.33021500000001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>197.98994099999999</v>
+      </c>
+      <c r="H10" s="9">
         <v>197.454691</v>
       </c>
-      <c r="F10" s="9">
-        <v>197.82543200000001</v>
-      </c>
-      <c r="G10" s="9">
-        <v>197.969675</v>
-      </c>
-      <c r="H10" s="9">
-        <v>199.97000700000001</v>
-      </c>
       <c r="I10" s="9">
-        <v>193.79496599999999</v>
+        <v>199.35488699999999</v>
       </c>
       <c r="J10" s="9">
-        <v>196.86460500000001</v>
+        <v>196.48432700000001</v>
       </c>
       <c r="K10" s="9">
-        <v>199.06044</v>
+        <v>199.50032200000001</v>
       </c>
       <c r="L10" s="10">
-        <v>199.655294</v>
+        <v>195.529461</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -4403,37 +4403,37 @@
       </c>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>1028.5043720000001</v>
+        <v>1027.4446009999999</v>
       </c>
       <c r="C11" s="12">
-        <v>1030.5297370000001</v>
+        <v>1029.624939</v>
       </c>
       <c r="D11" s="12">
-        <v>1030.900478</v>
+        <v>1028.9156439999999</v>
       </c>
       <c r="E11" s="12">
-        <v>1032.0794579999999</v>
+        <v>1030.0850869999999</v>
       </c>
       <c r="F11" s="12">
-        <v>1031.2604899999999</v>
+        <v>1027.4446009999999</v>
       </c>
       <c r="G11" s="12">
-        <v>1031.359434</v>
+        <v>1031.140089</v>
       </c>
       <c r="H11" s="12">
-        <v>1030.814648</v>
+        <v>1030.4796699999999</v>
       </c>
       <c r="I11" s="12">
-        <v>1028.5043720000001</v>
+        <v>1027.5697709999999</v>
       </c>
       <c r="J11" s="12">
-        <v>1029.8299790000001</v>
+        <v>1031.240225</v>
       </c>
       <c r="K11" s="12">
-        <v>1030.8051109999999</v>
+        <v>1032.509804</v>
       </c>
       <c r="L11" s="13">
-        <v>1031.0792919999999</v>
+        <v>1032.1938990000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -5233,6 +5233,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/block-stride/block-stride.xlsx
+++ b/block-stride/block-stride.xlsx
@@ -477,31 +477,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.074408</c:v>
+                  <c:v>3.0553340000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1650070000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3748149999999999</c:v>
+                  <c:v>3.3950809999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.8445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7947639999999998</c:v>
+                  <c:v>5.7554239999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.478994</c:v>
+                  <c:v>13.525486000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.969486000000003</c:v>
+                  <c:v>45.149326000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>193.49932699999999</c:v>
+                  <c:v>194.854736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1027.4446009999999</c:v>
+                  <c:v>1024.4297979999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,7 +4037,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4091,37 +4091,37 @@
       </c>
       <c r="B3" s="14">
         <f>MIN(C3:L3)</f>
+        <v>3.0553340000000002</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.069639</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.0601020000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.080368</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.0648710000000001</v>
+      </c>
+      <c r="G3" s="6">
         <v>3.074408</v>
       </c>
-      <c r="C3" s="6">
-        <v>3.0851359999999999</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3.080368</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3.074408</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3.1006339999999999</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>3.1101700000000001</v>
       </c>
-      <c r="H3" s="6">
-        <v>3.1042100000000001</v>
-      </c>
       <c r="I3" s="6">
-        <v>3.0851359999999999</v>
+        <v>3.0899049999999999</v>
       </c>
       <c r="J3" s="6">
-        <v>3.1149390000000001</v>
+        <v>3.0553340000000002</v>
       </c>
       <c r="K3" s="6">
-        <v>3.080368</v>
+        <v>3.0899049999999999</v>
       </c>
       <c r="L3" s="7">
-        <v>3.0756000000000001</v>
+        <v>3.0601020000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4133,34 +4133,34 @@
         <v>3.1650070000000001</v>
       </c>
       <c r="C4" s="9">
-        <v>3.2353399999999999</v>
+        <v>3.2150750000000001</v>
       </c>
       <c r="D4" s="9">
+        <v>3.1900409999999999</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.219843</v>
+      </c>
+      <c r="F4" s="9">
         <v>3.2448769999999998</v>
       </c>
-      <c r="E4" s="9">
-        <v>3.2043460000000001</v>
-      </c>
-      <c r="F4" s="9">
-        <v>3.3140179999999999</v>
-      </c>
       <c r="G4" s="9">
-        <v>3.2353399999999999</v>
+        <v>3.2401080000000002</v>
       </c>
       <c r="H4" s="9">
-        <v>3.175735</v>
+        <v>3.1650070000000001</v>
       </c>
       <c r="I4" s="9">
         <v>3.2055380000000002</v>
       </c>
       <c r="J4" s="9">
-        <v>3.1650070000000001</v>
+        <v>3.169775</v>
       </c>
       <c r="K4" s="9">
-        <v>3.1948089999999998</v>
+        <v>3.2341479999999998</v>
       </c>
       <c r="L4" s="10">
-        <v>3.2496450000000001</v>
+        <v>3.169775</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,34 +4169,34 @@
       </c>
       <c r="B5" s="15">
         <f t="shared" si="0"/>
-        <v>3.3748149999999999</v>
+        <v>3.3950809999999998</v>
       </c>
       <c r="C5" s="9">
-        <v>3.3998490000000001</v>
+        <v>3.415346</v>
       </c>
       <c r="D5" s="9">
-        <v>3.454685</v>
+        <v>3.4856799999999999</v>
       </c>
       <c r="E5" s="9">
-        <v>3.3748149999999999</v>
+        <v>3.4952160000000001</v>
       </c>
       <c r="F5" s="9">
-        <v>3.4451480000000001</v>
+        <v>3.5297869999999998</v>
       </c>
       <c r="G5" s="9">
-        <v>3.4749509999999999</v>
+        <v>3.4952160000000001</v>
       </c>
       <c r="H5" s="9">
-        <v>3.415346</v>
+        <v>3.4701819999999999</v>
       </c>
       <c r="I5" s="9">
-        <v>3.420115</v>
+        <v>3.3950809999999998</v>
       </c>
       <c r="J5" s="9">
-        <v>3.465414</v>
+        <v>3.5893920000000001</v>
       </c>
       <c r="K5" s="9">
-        <v>3.4749509999999999</v>
+        <v>3.3950809999999998</v>
       </c>
       <c r="L5" s="10">
         <v>3.465414</v>
@@ -4211,34 +4211,34 @@
         <v>3.8445</v>
       </c>
       <c r="C6" s="9">
+        <v>4.0197370000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.9649009999999998</v>
+      </c>
+      <c r="E6" s="9">
         <v>3.8445</v>
       </c>
-      <c r="D6" s="9">
-        <v>3.8599969999999999</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.1496750000000002</v>
-      </c>
       <c r="F6" s="9">
-        <v>3.8647649999999998</v>
+        <v>3.9947029999999999</v>
       </c>
       <c r="G6" s="9">
-        <v>3.9649009999999998</v>
+        <v>3.9553639999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>3.9947029999999999</v>
+        <v>3.8552279999999999</v>
       </c>
       <c r="I6" s="9">
-        <v>4.050732</v>
+        <v>3.9803980000000001</v>
       </c>
       <c r="J6" s="9">
-        <v>3.9494039999999999</v>
+        <v>3.8659569999999999</v>
       </c>
       <c r="K6" s="9">
-        <v>3.8445</v>
+        <v>3.989935</v>
       </c>
       <c r="L6" s="10">
-        <v>3.8599969999999999</v>
+        <v>4.0102010000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4247,37 +4247,37 @@
       </c>
       <c r="B7" s="15">
         <f t="shared" si="0"/>
+        <v>5.7554239999999997</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5.7709219999999997</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5.7554239999999997</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5.7959560000000003</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.7649609999999996</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5.975962</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6.1798099999999998</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6.3049790000000003</v>
+      </c>
+      <c r="J7" s="9">
         <v>5.7947639999999998</v>
       </c>
-      <c r="C7" s="9">
-        <v>6.2644479999999998</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5.815029</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5.7947639999999998</v>
-      </c>
-      <c r="F7" s="9">
-        <v>6.115437</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6.154776</v>
-      </c>
-      <c r="H7" s="9">
-        <v>5.7947639999999998</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5.8603290000000001</v>
-      </c>
-      <c r="J7" s="9">
-        <v>6.2203410000000003</v>
-      </c>
       <c r="K7" s="9">
-        <v>6.3049790000000003</v>
+        <v>6.1702729999999999</v>
       </c>
       <c r="L7" s="10">
-        <v>6.0343739999999997</v>
+        <v>5.7649609999999996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4286,37 +4286,37 @@
       </c>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>13.478994</v>
+        <v>13.525486000000001</v>
       </c>
       <c r="C8" s="9">
-        <v>13.524293999999999</v>
+        <v>14.845133000000001</v>
       </c>
       <c r="D8" s="9">
-        <v>15.544891</v>
+        <v>13.525486000000001</v>
       </c>
       <c r="E8" s="9">
-        <v>13.840199</v>
+        <v>16.150475</v>
       </c>
       <c r="F8" s="9">
-        <v>14.309882999999999</v>
+        <v>14.700889999999999</v>
       </c>
       <c r="G8" s="9">
-        <v>14.044046</v>
+        <v>13.926029</v>
       </c>
       <c r="H8" s="9">
-        <v>14.780760000000001</v>
+        <v>14.441013</v>
       </c>
       <c r="I8" s="9">
-        <v>13.478994</v>
+        <v>14.425516</v>
       </c>
       <c r="J8" s="9">
-        <v>13.910532</v>
+        <v>17.039776</v>
       </c>
       <c r="K8" s="9">
-        <v>14.7295</v>
+        <v>13.544559</v>
       </c>
       <c r="L8" s="10">
-        <v>15.575886000000001</v>
+        <v>15.535354999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4325,37 +4325,37 @@
       </c>
       <c r="B9" s="15">
         <f t="shared" si="0"/>
-        <v>45.969486000000003</v>
+        <v>45.149326000000002</v>
       </c>
       <c r="C9" s="9">
-        <v>48.240423</v>
+        <v>47.594309000000003</v>
       </c>
       <c r="D9" s="9">
-        <v>45.969486000000003</v>
+        <v>49.204825999999997</v>
       </c>
       <c r="E9" s="9">
-        <v>50.810575</v>
+        <v>45.149326000000002</v>
       </c>
       <c r="F9" s="9">
-        <v>46.374797999999998</v>
+        <v>51.114559</v>
       </c>
       <c r="G9" s="9">
-        <v>49.200057999999999</v>
+        <v>48.955679000000003</v>
       </c>
       <c r="H9" s="9">
-        <v>48.130750999999997</v>
+        <v>49.974918000000002</v>
       </c>
       <c r="I9" s="9">
-        <v>51.200389999999999</v>
+        <v>46.520232999999998</v>
       </c>
       <c r="J9" s="9">
-        <v>50.685406</v>
+        <v>51.059722999999998</v>
       </c>
       <c r="K9" s="9">
-        <v>47.990084000000003</v>
+        <v>51.214694999999999</v>
       </c>
       <c r="L9" s="10">
-        <v>46.85998</v>
+        <v>48.885345000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4364,37 +4364,37 @@
       </c>
       <c r="B10" s="15">
         <f t="shared" si="0"/>
-        <v>193.49932699999999</v>
+        <v>194.854736</v>
       </c>
       <c r="C10" s="9">
-        <v>193.49932699999999</v>
+        <v>199.43475699999999</v>
       </c>
       <c r="D10" s="9">
-        <v>193.75085799999999</v>
+        <v>197.42488900000001</v>
       </c>
       <c r="E10" s="9">
-        <v>195.37448900000001</v>
+        <v>197.445154</v>
       </c>
       <c r="F10" s="9">
-        <v>194.33021500000001</v>
+        <v>197.809935</v>
       </c>
       <c r="G10" s="9">
-        <v>197.98994099999999</v>
+        <v>196.24471700000001</v>
       </c>
       <c r="H10" s="9">
-        <v>197.454691</v>
+        <v>200.33955599999999</v>
       </c>
       <c r="I10" s="9">
-        <v>199.35488699999999</v>
+        <v>194.854736</v>
       </c>
       <c r="J10" s="9">
-        <v>196.48432700000001</v>
+        <v>199.17964900000001</v>
       </c>
       <c r="K10" s="9">
-        <v>199.50032200000001</v>
+        <v>198.830366</v>
       </c>
       <c r="L10" s="10">
-        <v>195.529461</v>
+        <v>198.83990299999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -4403,37 +4403,37 @@
       </c>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>1027.4446009999999</v>
+        <v>1024.4297979999999</v>
       </c>
       <c r="C11" s="12">
-        <v>1029.624939</v>
+        <v>1033.3001609999999</v>
       </c>
       <c r="D11" s="12">
-        <v>1028.9156439999999</v>
+        <v>1030.794382</v>
       </c>
       <c r="E11" s="12">
-        <v>1030.0850869999999</v>
+        <v>1034.7402099999999</v>
       </c>
       <c r="F11" s="12">
-        <v>1027.4446009999999</v>
+        <v>1032.2690009999999</v>
       </c>
       <c r="G11" s="12">
-        <v>1031.140089</v>
+        <v>1030.0195220000001</v>
       </c>
       <c r="H11" s="12">
-        <v>1030.4796699999999</v>
+        <v>1032.9341890000001</v>
       </c>
       <c r="I11" s="12">
-        <v>1027.5697709999999</v>
+        <v>1031.5704350000001</v>
       </c>
       <c r="J11" s="12">
-        <v>1031.240225</v>
+        <v>1024.4297979999999</v>
       </c>
       <c r="K11" s="12">
-        <v>1032.509804</v>
+        <v>1031.0804840000001</v>
       </c>
       <c r="L11" s="13">
-        <v>1032.1938990000001</v>
+        <v>1032.069921</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">

--- a/block-stride/block-stride.xlsx
+++ b/block-stride/block-stride.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16220"/>
+    <workbookView xWindow="3880" yWindow="460" windowWidth="28720" windowHeight="19380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PEACH2" sheetId="3" r:id="rId1"/>
     <sheet name="CPU1" sheetId="1" r:id="rId2"/>
     <sheet name="CPU0" sheetId="2" r:id="rId3"/>
+    <sheet name="CPU1-Datatype" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -62,6 +63,27 @@
   </si>
   <si>
     <t>CPU=0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MPI_Datatype</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Packing/Unpacking</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -358,37 +380,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -396,9 +388,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16348381452318461"/>
-          <c:y val="0.20099555263925342"/>
+          <c:y val="7.1365923009623772E-2"/>
           <c:w val="0.79719641294838151"/>
-          <c:h val="0.69160505978419362"/>
+          <c:h val="0.82123468941382327"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -413,7 +405,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -424,11 +416,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -477,31 +469,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.0553340000000002</c:v>
+                  <c:v>2.0599370000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1650070000000001</c:v>
+                  <c:v>2.1505359999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3950809999999998</c:v>
+                  <c:v>2.3245809999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8445</c:v>
+                  <c:v>2.6798250000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7554239999999997</c:v>
+                  <c:v>4.4548509999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.525486000000001</c:v>
+                  <c:v>12.180804999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.149326000000002</c:v>
+                  <c:v>45.080185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>194.854736</c:v>
+                  <c:v>191.67423199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1024.4297979999999</c:v>
+                  <c:v>1022.011042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,7 +514,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -533,11 +525,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -631,7 +623,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -642,11 +634,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1985,6 +1977,886 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104580927384077"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.83762321376494608"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPU1-Datatype'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Datatype</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50.270556999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.265862999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.720036999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.900208999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.060614000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.414935999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.580318000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>681.93554900000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1103.225946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F71E-8F40-BA71-1EEE233C022B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPU1-Datatype'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packing/Unpacking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33.985376000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.249854999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.919811000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.830570000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.164853999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.494338999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.364413999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226.445198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>564.62526300000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F71E-8F40-BA71-1EEE233C022B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="424556127"/>
+        <c:axId val="423864159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="424556127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423864159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423864159"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424556127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104580927384077"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.83762321376494608"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPU1-Datatype'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Datatype</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$A$19:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$B$19:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50.834417000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.305368000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.239789999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.234327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.235821000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.905428000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.164759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>685.96482300000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1111.0198499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B1A-D843-B3D7-F89BFC3A9BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPU1-Datatype'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packing/Unpacking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$A$19:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CPU1-Datatype'!$C$19:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35.294294000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.494399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.500526000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.444830000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.66431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.934928999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.72474099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245.49961099999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>574.909449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B1A-D843-B3D7-F89BFC3A9BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="424556127"/>
+        <c:axId val="423864159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="424556127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423864159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423864159"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424556127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2105,6 +2977,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3112,6 +4064,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3729,6 +5687,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473A8CF3-8A09-4640-9FA8-D774744AB47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0868BD-ED41-8048-8915-2320C2A38453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4036,8 +6073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4091,37 +6128,37 @@
       </c>
       <c r="B3" s="14">
         <f>MIN(C3:L3)</f>
-        <v>3.0553340000000002</v>
+        <v>2.0599370000000001</v>
       </c>
       <c r="C3" s="6">
-        <v>3.069639</v>
+        <v>2.0849700000000002</v>
       </c>
       <c r="D3" s="6">
-        <v>3.0601020000000001</v>
+        <v>2.0599370000000001</v>
       </c>
       <c r="E3" s="6">
-        <v>3.080368</v>
+        <v>2.0849700000000002</v>
       </c>
       <c r="F3" s="6">
-        <v>3.0648710000000001</v>
+        <v>2.0742419999999999</v>
       </c>
       <c r="G3" s="6">
-        <v>3.074408</v>
+        <v>2.070665</v>
       </c>
       <c r="H3" s="6">
-        <v>3.1101700000000001</v>
+        <v>2.0742419999999999</v>
       </c>
       <c r="I3" s="6">
-        <v>3.0899049999999999</v>
+        <v>2.0802019999999999</v>
       </c>
       <c r="J3" s="6">
-        <v>3.0553340000000002</v>
+        <v>2.070665</v>
       </c>
       <c r="K3" s="6">
-        <v>3.0899049999999999</v>
+        <v>2.0897389999999998</v>
       </c>
       <c r="L3" s="7">
-        <v>3.0601020000000001</v>
+        <v>2.0599370000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4130,37 +6167,37 @@
       </c>
       <c r="B4" s="15">
         <f t="shared" ref="B4:B11" si="0">MIN(C4:L4)</f>
-        <v>3.1650070000000001</v>
+        <v>2.1505359999999998</v>
       </c>
       <c r="C4" s="9">
-        <v>3.2150750000000001</v>
+        <v>2.1696089999999999</v>
       </c>
       <c r="D4" s="9">
-        <v>3.1900409999999999</v>
+        <v>2.1505359999999998</v>
       </c>
       <c r="E4" s="9">
-        <v>3.219843</v>
+        <v>2.154112</v>
       </c>
       <c r="F4" s="9">
-        <v>3.2448769999999998</v>
+        <v>2.1696089999999999</v>
       </c>
       <c r="G4" s="9">
-        <v>3.2401080000000002</v>
+        <v>2.1696089999999999</v>
       </c>
       <c r="H4" s="9">
-        <v>3.1650070000000001</v>
+        <v>2.1505359999999998</v>
       </c>
       <c r="I4" s="9">
-        <v>3.2055380000000002</v>
+        <v>2.154112</v>
       </c>
       <c r="J4" s="9">
-        <v>3.169775</v>
+        <v>2.1696089999999999</v>
       </c>
       <c r="K4" s="9">
-        <v>3.2341479999999998</v>
+        <v>2.160072</v>
       </c>
       <c r="L4" s="10">
-        <v>3.169775</v>
+        <v>2.160072</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,37 +6206,37 @@
       </c>
       <c r="B5" s="15">
         <f t="shared" si="0"/>
-        <v>3.3950809999999998</v>
+        <v>2.3245809999999998</v>
       </c>
       <c r="C5" s="9">
-        <v>3.415346</v>
+        <v>2.3555760000000001</v>
       </c>
       <c r="D5" s="9">
-        <v>3.4856799999999999</v>
+        <v>2.3293499999999998</v>
       </c>
       <c r="E5" s="9">
-        <v>3.4952160000000001</v>
+        <v>2.3353100000000002</v>
       </c>
       <c r="F5" s="9">
-        <v>3.5297869999999998</v>
+        <v>2.3448470000000001</v>
       </c>
       <c r="G5" s="9">
-        <v>3.4952160000000001</v>
+        <v>2.3508070000000001</v>
       </c>
       <c r="H5" s="9">
-        <v>3.4701819999999999</v>
+        <v>2.3305419999999999</v>
       </c>
       <c r="I5" s="9">
-        <v>3.3950809999999998</v>
+        <v>2.3257729999999999</v>
       </c>
       <c r="J5" s="9">
-        <v>3.5893920000000001</v>
+        <v>2.349615</v>
       </c>
       <c r="K5" s="9">
-        <v>3.3950809999999998</v>
+        <v>2.3245809999999998</v>
       </c>
       <c r="L5" s="10">
-        <v>3.465414</v>
+        <v>2.3555760000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4208,37 +6245,37 @@
       </c>
       <c r="B6" s="15">
         <f t="shared" si="0"/>
-        <v>3.8445</v>
+        <v>2.6798250000000001</v>
       </c>
       <c r="C6" s="9">
-        <v>4.0197370000000001</v>
+        <v>2.6798250000000001</v>
       </c>
       <c r="D6" s="9">
-        <v>3.9649009999999998</v>
+        <v>2.695322</v>
       </c>
       <c r="E6" s="9">
-        <v>3.8445</v>
+        <v>2.684593</v>
       </c>
       <c r="F6" s="9">
-        <v>3.9947029999999999</v>
+        <v>2.6905540000000001</v>
       </c>
       <c r="G6" s="9">
-        <v>3.9553639999999999</v>
+        <v>2.6798250000000001</v>
       </c>
       <c r="H6" s="9">
-        <v>3.8552279999999999</v>
+        <v>2.6941299999999999</v>
       </c>
       <c r="I6" s="9">
-        <v>3.9803980000000001</v>
+        <v>2.6857850000000001</v>
       </c>
       <c r="J6" s="9">
-        <v>3.8659569999999999</v>
+        <v>2.6905540000000001</v>
       </c>
       <c r="K6" s="9">
-        <v>3.989935</v>
+        <v>2.7096269999999998</v>
       </c>
       <c r="L6" s="10">
-        <v>4.0102010000000003</v>
+        <v>2.6798250000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4247,37 +6284,37 @@
       </c>
       <c r="B7" s="15">
         <f t="shared" si="0"/>
-        <v>5.7554239999999997</v>
+        <v>4.4548509999999997</v>
       </c>
       <c r="C7" s="9">
-        <v>5.7709219999999997</v>
+        <v>4.6098229999999996</v>
       </c>
       <c r="D7" s="9">
-        <v>5.7554239999999997</v>
+        <v>4.620552</v>
       </c>
       <c r="E7" s="9">
-        <v>5.7959560000000003</v>
+        <v>4.475117</v>
       </c>
       <c r="F7" s="9">
-        <v>5.7649609999999996</v>
+        <v>4.5847889999999998</v>
       </c>
       <c r="G7" s="9">
-        <v>5.975962</v>
+        <v>4.6491619999999996</v>
       </c>
       <c r="H7" s="9">
-        <v>6.1798099999999998</v>
+        <v>4.5299529999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>6.3049790000000003</v>
+        <v>4.4608119999999998</v>
       </c>
       <c r="J7" s="9">
-        <v>5.7947639999999998</v>
+        <v>4.4548509999999997</v>
       </c>
       <c r="K7" s="9">
-        <v>6.1702729999999999</v>
+        <v>4.6050550000000001</v>
       </c>
       <c r="L7" s="10">
-        <v>5.7649609999999996</v>
+        <v>4.4548509999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4286,37 +6323,37 @@
       </c>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>13.525486000000001</v>
+        <v>12.180804999999999</v>
       </c>
       <c r="C8" s="9">
-        <v>14.845133000000001</v>
+        <v>12.209415</v>
       </c>
       <c r="D8" s="9">
-        <v>13.525486000000001</v>
+        <v>13.960599999999999</v>
       </c>
       <c r="E8" s="9">
-        <v>16.150475</v>
+        <v>13.805628</v>
       </c>
       <c r="F8" s="9">
-        <v>14.700889999999999</v>
+        <v>12.180804999999999</v>
       </c>
       <c r="G8" s="9">
-        <v>13.926029</v>
+        <v>12.744664999999999</v>
       </c>
       <c r="H8" s="9">
-        <v>14.441013</v>
+        <v>12.420415999999999</v>
       </c>
       <c r="I8" s="9">
-        <v>14.425516</v>
+        <v>13.980865</v>
       </c>
       <c r="J8" s="9">
-        <v>17.039776</v>
+        <v>13.90934</v>
       </c>
       <c r="K8" s="9">
-        <v>13.544559</v>
+        <v>14.009475999999999</v>
       </c>
       <c r="L8" s="10">
-        <v>15.535354999999999</v>
+        <v>12.285709000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4325,37 +6362,37 @@
       </c>
       <c r="B9" s="15">
         <f t="shared" si="0"/>
-        <v>45.149326000000002</v>
+        <v>45.080185</v>
       </c>
       <c r="C9" s="9">
-        <v>47.594309000000003</v>
+        <v>46.694279000000002</v>
       </c>
       <c r="D9" s="9">
-        <v>49.204825999999997</v>
+        <v>45.080185</v>
       </c>
       <c r="E9" s="9">
-        <v>45.149326000000002</v>
+        <v>47.644376999999999</v>
       </c>
       <c r="F9" s="9">
-        <v>51.114559</v>
+        <v>49.605370000000001</v>
       </c>
       <c r="G9" s="9">
-        <v>48.955679000000003</v>
+        <v>49.120187999999999</v>
       </c>
       <c r="H9" s="9">
-        <v>49.974918000000002</v>
+        <v>50.294398999999999</v>
       </c>
       <c r="I9" s="9">
-        <v>46.520232999999998</v>
+        <v>48.054456999999999</v>
       </c>
       <c r="J9" s="9">
-        <v>51.059722999999998</v>
+        <v>47.705173000000002</v>
       </c>
       <c r="K9" s="9">
-        <v>51.214694999999999</v>
+        <v>46.625137000000002</v>
       </c>
       <c r="L9" s="10">
-        <v>48.885345000000001</v>
+        <v>46.85998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4364,37 +6401,37 @@
       </c>
       <c r="B10" s="15">
         <f t="shared" si="0"/>
-        <v>194.854736</v>
+        <v>191.67423199999999</v>
       </c>
       <c r="C10" s="9">
-        <v>199.43475699999999</v>
+        <v>192.53015500000001</v>
       </c>
       <c r="D10" s="9">
-        <v>197.42488900000001</v>
+        <v>191.67423199999999</v>
       </c>
       <c r="E10" s="9">
-        <v>197.445154</v>
+        <v>193.560123</v>
       </c>
       <c r="F10" s="9">
-        <v>197.809935</v>
+        <v>192.410946</v>
       </c>
       <c r="G10" s="9">
-        <v>196.24471700000001</v>
+        <v>195.105076</v>
       </c>
       <c r="H10" s="9">
-        <v>200.33955599999999</v>
+        <v>192.87467000000001</v>
       </c>
       <c r="I10" s="9">
-        <v>194.854736</v>
+        <v>194.050074</v>
       </c>
       <c r="J10" s="9">
-        <v>199.17964900000001</v>
+        <v>193.28951799999999</v>
       </c>
       <c r="K10" s="9">
-        <v>198.830366</v>
+        <v>193.60065499999999</v>
       </c>
       <c r="L10" s="10">
-        <v>198.83990299999999</v>
+        <v>193.00460799999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -4403,37 +6440,37 @@
       </c>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>1024.4297979999999</v>
+        <v>1022.011042</v>
       </c>
       <c r="C11" s="12">
-        <v>1033.3001609999999</v>
+        <v>1024.370193</v>
       </c>
       <c r="D11" s="12">
-        <v>1030.794382</v>
+        <v>1022.655964</v>
       </c>
       <c r="E11" s="12">
-        <v>1034.7402099999999</v>
+        <v>1023.0505470000001</v>
       </c>
       <c r="F11" s="12">
-        <v>1032.2690009999999</v>
+        <v>1022.86458</v>
       </c>
       <c r="G11" s="12">
-        <v>1030.0195220000001</v>
+        <v>1025.515795</v>
       </c>
       <c r="H11" s="12">
-        <v>1032.9341890000001</v>
+        <v>1022.41993</v>
       </c>
       <c r="I11" s="12">
-        <v>1031.5704350000001</v>
+        <v>1024.6694090000001</v>
       </c>
       <c r="J11" s="12">
-        <v>1024.4297979999999</v>
+        <v>1023.659706</v>
       </c>
       <c r="K11" s="12">
-        <v>1031.0804840000001</v>
+        <v>1022.011042</v>
       </c>
       <c r="L11" s="13">
-        <v>1032.069921</v>
+        <v>1022.264957</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -5243,7 +7280,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:L11"/>
+      <selection activeCell="B11" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6049,7 +8086,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:L11"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6848,4 +8885,248 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>50.270556999999997</v>
+      </c>
+      <c r="C2">
+        <v>33.985376000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>72.265862999999996</v>
+      </c>
+      <c r="C3">
+        <v>33.249854999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>36.720036999999998</v>
+      </c>
+      <c r="C4">
+        <v>33.919811000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>37.900208999999997</v>
+      </c>
+      <c r="C5">
+        <v>34.830570000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>42.060614000000001</v>
+      </c>
+      <c r="C6">
+        <v>38.164853999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>58.414935999999997</v>
+      </c>
+      <c r="C7">
+        <v>48.494338999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>92.580318000000005</v>
+      </c>
+      <c r="C8">
+        <v>84.364413999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>256</v>
+      </c>
+      <c r="B9">
+        <v>681.93554900000004</v>
+      </c>
+      <c r="C9">
+        <v>226.445198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>512</v>
+      </c>
+      <c r="B10">
+        <v>1103.225946</v>
+      </c>
+      <c r="C10">
+        <v>564.62526300000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>50.834417000000002</v>
+      </c>
+      <c r="C19">
+        <v>35.294294000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>73.305368000000001</v>
+      </c>
+      <c r="C20">
+        <v>34.494399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>37.239789999999999</v>
+      </c>
+      <c r="C21">
+        <v>35.500526000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>40.234327</v>
+      </c>
+      <c r="C22">
+        <v>37.444830000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>49.235821000000001</v>
+      </c>
+      <c r="C23">
+        <v>45.66431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>90.905428000000001</v>
+      </c>
+      <c r="C24">
+        <v>81.934928999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>128</v>
+      </c>
+      <c r="B25">
+        <v>138.164759</v>
+      </c>
+      <c r="C25">
+        <v>129.72474099999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>256</v>
+      </c>
+      <c r="B26">
+        <v>685.96482300000002</v>
+      </c>
+      <c r="C26">
+        <v>245.49961099999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>512</v>
+      </c>
+      <c r="B27">
+        <v>1111.0198499999999</v>
+      </c>
+      <c r="C27">
+        <v>574.909449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>